--- a/planilha_destruicao.xlsx
+++ b/planilha_destruicao.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-2.9</v>
+        <v>-2.3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>

--- a/planilha_destruicao.xlsx
+++ b/planilha_destruicao.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
